--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H2">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>170.4190976997905</v>
+        <v>245.663428745944</v>
       </c>
       <c r="R2">
-        <v>170.4190976997905</v>
+        <v>2210.970858713496</v>
       </c>
       <c r="S2">
-        <v>0.02635334103305331</v>
+        <v>0.0351295791722707</v>
       </c>
       <c r="T2">
-        <v>0.02635334103305331</v>
+        <v>0.03512957917227069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H3">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>163.508451040439</v>
+        <v>213.2051213984853</v>
       </c>
       <c r="R3">
-        <v>163.508451040439</v>
+        <v>1918.846092586368</v>
       </c>
       <c r="S3">
-        <v>0.02528468951082991</v>
+        <v>0.03048807968827691</v>
       </c>
       <c r="T3">
-        <v>0.02528468951082991</v>
+        <v>0.0304880796882769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H4">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>226.1504374495444</v>
+        <v>298.0983238102614</v>
       </c>
       <c r="R4">
-        <v>226.1504374495444</v>
+        <v>2682.884914292352</v>
       </c>
       <c r="S4">
-        <v>0.03497154769227112</v>
+        <v>0.04262770702530407</v>
       </c>
       <c r="T4">
-        <v>0.03497154769227112</v>
+        <v>0.04262770702530407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H5">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>1651.511745398836</v>
+        <v>1858.099253027218</v>
       </c>
       <c r="R5">
-        <v>1651.511745398836</v>
+        <v>16722.89327724496</v>
       </c>
       <c r="S5">
-        <v>0.255387176871798</v>
+        <v>0.2657059911292734</v>
       </c>
       <c r="T5">
-        <v>0.255387176871798</v>
+        <v>0.2657059911292733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H6">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>1584.541468708805</v>
+        <v>1612.59768633203</v>
       </c>
       <c r="R6">
-        <v>1584.541468708805</v>
+        <v>14513.37917698827</v>
       </c>
       <c r="S6">
-        <v>0.2450309986939314</v>
+        <v>0.2305995580384364</v>
       </c>
       <c r="T6">
-        <v>0.2450309986939314</v>
+        <v>0.2305995580384363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H7">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>2191.597706572451</v>
+        <v>2254.695685182068</v>
       </c>
       <c r="R7">
-        <v>2191.597706572451</v>
+        <v>20292.26116663861</v>
       </c>
       <c r="S7">
-        <v>0.3389052198263828</v>
+        <v>0.322418810916675</v>
       </c>
       <c r="T7">
-        <v>0.3389052198263828</v>
+        <v>0.3224188109166749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H8">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>145.739490488689</v>
+        <v>165.742592060032</v>
       </c>
       <c r="R8">
-        <v>145.739490488689</v>
+        <v>1491.683328540288</v>
       </c>
       <c r="S8">
-        <v>0.02253692541899059</v>
+        <v>0.02370099424123742</v>
       </c>
       <c r="T8">
-        <v>0.02253692541899059</v>
+        <v>0.02370099424123741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H9">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>139.829623949814</v>
+        <v>143.8438339863893</v>
       </c>
       <c r="R9">
-        <v>139.829623949814</v>
+        <v>1294.594505877504</v>
       </c>
       <c r="S9">
-        <v>0.02162303295939572</v>
+        <v>0.02056949778916271</v>
       </c>
       <c r="T9">
-        <v>0.02162303295939572</v>
+        <v>0.0205694977891627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H10">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>193.3999767194592</v>
+        <v>201.1190234105173</v>
       </c>
       <c r="R10">
-        <v>193.3999767194592</v>
+        <v>1810.071210694656</v>
       </c>
       <c r="S10">
-        <v>0.029907067993347</v>
+        <v>0.02875978199936356</v>
       </c>
       <c r="T10">
-        <v>0.029907067993347</v>
+        <v>0.02875978199936355</v>
       </c>
     </row>
   </sheetData>
